--- a/biology/Zoologie/Aeolocoelotes_unicatus/Aeolocoelotes_unicatus.xlsx
+++ b/biology/Zoologie/Aeolocoelotes_unicatus/Aeolocoelotes_unicatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeolocoelotes unicatus est une espèce d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeolocoelotes unicatus est une espèce d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon[1]. Elle se rencontre sur Honshū, Shikoku et Kyūshū[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre sur Honshū, Shikoku et Kyūshū.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 11,8 mm et le mâle paratype 9,7 mm[3].
-Les mâles mesurent de 10,0 à 13,0 mm et les femelles de 9,0 à 15,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 11,8 mm et le mâle paratype 9,7 mm.
+Les mâles mesurent de 10,0 à 13,0 mm et les femelles de 9,0 à 15,0 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Coelotes unicatus par Yaginuma en 1977. Elle est placée dans le genre Aeolocoelotes par Okumura en 2020[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Coelotes unicatus par Yaginuma en 1977. Elle est placée dans le genre Aeolocoelotes par Okumura en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yaginuma, 1977 : « Spiders from limestone caves of Akiyoshi-dai Plateau, Yamaguchi Prefecture, Japan (II). » Acta Arachnologica, vol. 27, p. 1-21.</t>
         </is>
